--- a/data/576/DOS/M212261.xlsx
+++ b/data/576/DOS/M212261.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DOS" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,584 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="191">
-  <si>
-    <t>Variables</t>
-  </si>
-  <si>
-    <t>1975 1Q</t>
-  </si>
-  <si>
-    <t>1975 2Q</t>
-  </si>
-  <si>
-    <t>1975 3Q</t>
-  </si>
-  <si>
-    <t>1975 4Q</t>
-  </si>
-  <si>
-    <t>1976 1Q</t>
-  </si>
-  <si>
-    <t>1976 2Q</t>
-  </si>
-  <si>
-    <t>1976 3Q</t>
-  </si>
-  <si>
-    <t>1976 4Q</t>
-  </si>
-  <si>
-    <t>1977 1Q</t>
-  </si>
-  <si>
-    <t>1977 2Q</t>
-  </si>
-  <si>
-    <t>1977 3Q</t>
-  </si>
-  <si>
-    <t>1977 4Q</t>
-  </si>
-  <si>
-    <t>1978 1Q</t>
-  </si>
-  <si>
-    <t>1978 2Q</t>
-  </si>
-  <si>
-    <t>1978 3Q</t>
-  </si>
-  <si>
-    <t>1978 4Q</t>
-  </si>
-  <si>
-    <t>1979 1Q</t>
-  </si>
-  <si>
-    <t>1979 2Q</t>
-  </si>
-  <si>
-    <t>1979 3Q</t>
-  </si>
-  <si>
-    <t>1979 4Q</t>
-  </si>
-  <si>
-    <t>1980 1Q</t>
-  </si>
-  <si>
-    <t>1980 2Q</t>
-  </si>
-  <si>
-    <t>1980 3Q</t>
-  </si>
-  <si>
-    <t>1980 4Q</t>
-  </si>
-  <si>
-    <t>1981 1Q</t>
-  </si>
-  <si>
-    <t>1981 2Q</t>
-  </si>
-  <si>
-    <t>1981 3Q</t>
-  </si>
-  <si>
-    <t>1981 4Q</t>
-  </si>
-  <si>
-    <t>1982 1Q</t>
-  </si>
-  <si>
-    <t>1982 2Q</t>
-  </si>
-  <si>
-    <t>1982 3Q</t>
-  </si>
-  <si>
-    <t>1982 4Q</t>
-  </si>
-  <si>
-    <t>1983 1Q</t>
-  </si>
-  <si>
-    <t>1983 2Q</t>
-  </si>
-  <si>
-    <t>1983 3Q</t>
-  </si>
-  <si>
-    <t>1983 4Q</t>
-  </si>
-  <si>
-    <t>1984 1Q</t>
-  </si>
-  <si>
-    <t>1984 2Q</t>
-  </si>
-  <si>
-    <t>1984 3Q</t>
-  </si>
-  <si>
-    <t>1984 4Q</t>
-  </si>
-  <si>
-    <t>1985 1Q</t>
-  </si>
-  <si>
-    <t>1985 2Q</t>
-  </si>
-  <si>
-    <t>1985 3Q</t>
-  </si>
-  <si>
-    <t>1985 4Q</t>
-  </si>
-  <si>
-    <t>1986 1Q</t>
-  </si>
-  <si>
-    <t>1986 2Q</t>
-  </si>
-  <si>
-    <t>1986 3Q</t>
-  </si>
-  <si>
-    <t>1986 4Q</t>
-  </si>
-  <si>
-    <t>1987 1Q</t>
-  </si>
-  <si>
-    <t>1987 2Q</t>
-  </si>
-  <si>
-    <t>1987 3Q</t>
-  </si>
-  <si>
-    <t>1987 4Q</t>
-  </si>
-  <si>
-    <t>1988 1Q</t>
-  </si>
-  <si>
-    <t>1988 2Q</t>
-  </si>
-  <si>
-    <t>1988 3Q</t>
-  </si>
-  <si>
-    <t>1988 4Q</t>
-  </si>
-  <si>
-    <t>1989 1Q</t>
-  </si>
-  <si>
-    <t>1989 2Q</t>
-  </si>
-  <si>
-    <t>1989 3Q</t>
-  </si>
-  <si>
-    <t>1989 4Q</t>
-  </si>
-  <si>
-    <t>1990 1Q</t>
-  </si>
-  <si>
-    <t>1990 2Q</t>
-  </si>
-  <si>
-    <t>1990 3Q</t>
-  </si>
-  <si>
-    <t>1990 4Q</t>
-  </si>
-  <si>
-    <t>1991 1Q</t>
-  </si>
-  <si>
-    <t>1991 2Q</t>
-  </si>
-  <si>
-    <t>1991 3Q</t>
-  </si>
-  <si>
-    <t>1991 4Q</t>
-  </si>
-  <si>
-    <t>1992 1Q</t>
-  </si>
-  <si>
-    <t>1992 2Q</t>
-  </si>
-  <si>
-    <t>1992 3Q</t>
-  </si>
-  <si>
-    <t>1992 4Q</t>
-  </si>
-  <si>
-    <t>1993 1Q</t>
-  </si>
-  <si>
-    <t>1993 2Q</t>
-  </si>
-  <si>
-    <t>1993 3Q</t>
-  </si>
-  <si>
-    <t>1993 4Q</t>
-  </si>
-  <si>
-    <t>1994 1Q</t>
-  </si>
-  <si>
-    <t>1994 2Q</t>
-  </si>
-  <si>
-    <t>1994 3Q</t>
-  </si>
-  <si>
-    <t>1994 4Q</t>
-  </si>
-  <si>
-    <t>1995 1Q</t>
-  </si>
-  <si>
-    <t>1995 2Q</t>
-  </si>
-  <si>
-    <t>1995 3Q</t>
-  </si>
-  <si>
-    <t>1995 4Q</t>
-  </si>
-  <si>
-    <t>1996 1Q</t>
-  </si>
-  <si>
-    <t>1996 2Q</t>
-  </si>
-  <si>
-    <t>1996 3Q</t>
-  </si>
-  <si>
-    <t>1996 4Q</t>
-  </si>
-  <si>
-    <t>1997 1Q</t>
-  </si>
-  <si>
-    <t>1997 2Q</t>
-  </si>
-  <si>
-    <t>1997 3Q</t>
-  </si>
-  <si>
-    <t>1997 4Q</t>
-  </si>
-  <si>
-    <t>1998 1Q</t>
-  </si>
-  <si>
-    <t>1998 2Q</t>
-  </si>
-  <si>
-    <t>1998 3Q</t>
-  </si>
-  <si>
-    <t>1998 4Q</t>
-  </si>
-  <si>
-    <t>1999 1Q</t>
-  </si>
-  <si>
-    <t>1999 2Q</t>
-  </si>
-  <si>
-    <t>1999 3Q</t>
-  </si>
-  <si>
-    <t>1999 4Q</t>
-  </si>
-  <si>
-    <t>2000 1Q</t>
-  </si>
-  <si>
-    <t>2000 2Q</t>
-  </si>
-  <si>
-    <t>2000 3Q</t>
-  </si>
-  <si>
-    <t>2000 4Q</t>
-  </si>
-  <si>
-    <t>2001 1Q</t>
-  </si>
-  <si>
-    <t>2001 2Q</t>
-  </si>
-  <si>
-    <t>2001 3Q</t>
-  </si>
-  <si>
-    <t>2001 4Q</t>
-  </si>
-  <si>
-    <t>2002 1Q</t>
-  </si>
-  <si>
-    <t>2002 2Q</t>
-  </si>
-  <si>
-    <t>2002 3Q</t>
-  </si>
-  <si>
-    <t>2002 4Q</t>
-  </si>
-  <si>
-    <t>2003 1Q</t>
-  </si>
-  <si>
-    <t>2003 2Q</t>
-  </si>
-  <si>
-    <t>2003 3Q</t>
-  </si>
-  <si>
-    <t>2003 4Q</t>
-  </si>
-  <si>
-    <t>2004 1Q</t>
-  </si>
-  <si>
-    <t>2004 2Q</t>
-  </si>
-  <si>
-    <t>2004 3Q</t>
-  </si>
-  <si>
-    <t>2004 4Q</t>
-  </si>
-  <si>
-    <t>2005 1Q</t>
-  </si>
-  <si>
-    <t>2005 2Q</t>
-  </si>
-  <si>
-    <t>2005 3Q</t>
-  </si>
-  <si>
-    <t>2005 4Q</t>
-  </si>
-  <si>
-    <t>2006 1Q</t>
-  </si>
-  <si>
-    <t>2006 2Q</t>
-  </si>
-  <si>
-    <t>2006 3Q</t>
-  </si>
-  <si>
-    <t>2006 4Q</t>
-  </si>
-  <si>
-    <t>2007 1Q</t>
-  </si>
-  <si>
-    <t>2007 2Q</t>
-  </si>
-  <si>
-    <t>2007 3Q</t>
-  </si>
-  <si>
-    <t>2007 4Q</t>
-  </si>
-  <si>
-    <t>2008 1Q</t>
-  </si>
-  <si>
-    <t>2008 2Q</t>
-  </si>
-  <si>
-    <t>2008 3Q</t>
-  </si>
-  <si>
-    <t>2008 4Q</t>
-  </si>
-  <si>
-    <t>2009 1Q</t>
-  </si>
-  <si>
-    <t>2009 2Q</t>
-  </si>
-  <si>
-    <t>2009 3Q</t>
-  </si>
-  <si>
-    <t>2009 4Q</t>
-  </si>
-  <si>
-    <t>2010 1Q</t>
-  </si>
-  <si>
-    <t>2010 2Q</t>
-  </si>
-  <si>
-    <t>2010 3Q</t>
-  </si>
-  <si>
-    <t>2010 4Q</t>
-  </si>
-  <si>
-    <t>2011 1Q</t>
-  </si>
-  <si>
-    <t>2011 2Q</t>
-  </si>
-  <si>
-    <t>2011 3Q</t>
-  </si>
-  <si>
-    <t>2011 4Q</t>
-  </si>
-  <si>
-    <t>2012 1Q</t>
-  </si>
-  <si>
-    <t>2012 2Q</t>
-  </si>
-  <si>
-    <t>2012 3Q</t>
-  </si>
-  <si>
-    <t>2012 4Q</t>
-  </si>
-  <si>
-    <t>2013 1Q</t>
-  </si>
-  <si>
-    <t>2013 2Q</t>
-  </si>
-  <si>
-    <t>2013 3Q</t>
-  </si>
-  <si>
-    <t>2013 4Q</t>
-  </si>
-  <si>
-    <t>2014 1Q</t>
-  </si>
-  <si>
-    <t>2014 2Q</t>
-  </si>
-  <si>
-    <t>2014 3Q</t>
-  </si>
-  <si>
-    <t>2014 4Q</t>
-  </si>
-  <si>
-    <t>2015 1Q</t>
-  </si>
-  <si>
-    <t>2015 2Q</t>
-  </si>
-  <si>
-    <t>2015 3Q</t>
-  </si>
-  <si>
-    <t>2015 4Q</t>
-  </si>
-  <si>
-    <t>2016 1Q</t>
-  </si>
-  <si>
-    <t>2016 2Q</t>
-  </si>
-  <si>
-    <t>2016 3Q</t>
-  </si>
-  <si>
-    <t>2016 4Q</t>
-  </si>
-  <si>
-    <t>2017 1Q</t>
-  </si>
-  <si>
-    <t>2017 2Q</t>
-  </si>
-  <si>
-    <t>2017 3Q</t>
-  </si>
-  <si>
-    <t>2017 4Q</t>
-  </si>
-  <si>
-    <t>2018 1Q</t>
-  </si>
-  <si>
-    <t>2018 2Q</t>
-  </si>
-  <si>
-    <t>2018 3Q</t>
-  </si>
-  <si>
-    <t>2018 4Q</t>
-  </si>
-  <si>
-    <t>2019 1Q</t>
-  </si>
-  <si>
-    <t>2019 2Q</t>
-  </si>
-  <si>
-    <t>2019 3Q</t>
-  </si>
-  <si>
-    <t>2019 4Q</t>
-  </si>
-  <si>
-    <t>2020 1Q</t>
-  </si>
-  <si>
-    <t>2020 2Q</t>
-  </si>
-  <si>
-    <t>2020 3Q</t>
-  </si>
-  <si>
-    <t>2020 4Q</t>
-  </si>
-  <si>
-    <t>2021 1Q</t>
-  </si>
-  <si>
-    <t>2021 2Q</t>
-  </si>
-  <si>
-    <t>2021 3Q</t>
-  </si>
-  <si>
-    <t>Residential Properties</t>
-  </si>
-  <si>
-    <t>Landed</t>
-  </si>
-  <si>
-    <t>Non-landed</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -936,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GF4"/>
+  <dimension ref="A1:GG4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -944,575 +366,958 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:188">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FO1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="FR1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="FX1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="FY1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="GA1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="GB1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="GC1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="GD1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="GE1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>187</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variables</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1975 1Q</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1975 2Q</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1975 3Q</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1975 4Q</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1976 1Q</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1976 2Q</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1976 3Q</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1976 4Q</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1977 1Q</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1977 2Q</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1977 3Q</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1977 4Q</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1978 1Q</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1978 2Q</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1978 3Q</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1978 4Q</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1979 1Q</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1979 2Q</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1979 3Q</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1979 4Q</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1980 1Q</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1980 2Q</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1980 3Q</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1980 4Q</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1981 1Q</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1981 2Q</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1981 3Q</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1981 4Q</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1982 1Q</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1982 2Q</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>1982 3Q</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>1982 4Q</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>1983 1Q</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>1983 2Q</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>1983 3Q</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>1983 4Q</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>1984 1Q</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>1984 2Q</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>1984 3Q</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>1984 4Q</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>1985 1Q</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>1985 2Q</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>1985 3Q</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>1985 4Q</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>1986 1Q</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>1986 2Q</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>1986 3Q</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>1986 4Q</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>1987 1Q</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>1987 2Q</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>1987 3Q</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>1987 4Q</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>1988 1Q</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>1988 2Q</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>1988 3Q</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>1988 4Q</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>1989 1Q</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>1989 2Q</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>1989 3Q</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>1989 4Q</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>1990 1Q</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>1990 2Q</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>1990 3Q</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>1990 4Q</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>1991 1Q</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>1991 2Q</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>1991 3Q</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>1991 4Q</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>1992 1Q</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>1992 2Q</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>1992 3Q</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>1992 4Q</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>1993 1Q</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>1993 2Q</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>1993 3Q</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>1993 4Q</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>1994 1Q</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>1994 2Q</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>1994 3Q</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>1994 4Q</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>1995 1Q</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>1995 2Q</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>1995 3Q</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>1995 4Q</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>1996 1Q</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>1996 2Q</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>1996 3Q</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>1996 4Q</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>1997 1Q</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>1997 2Q</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>1997 3Q</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>1997 4Q</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>1998 1Q</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>1998 2Q</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>1998 3Q</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>1998 4Q</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>1999 1Q</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>1999 2Q</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>1999 3Q</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>1999 4Q</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2000 1Q</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2000 2Q</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2000 3Q</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2000 4Q</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2001 1Q</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2001 2Q</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2001 3Q</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2001 4Q</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2002 1Q</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2002 2Q</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2002 3Q</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2002 4Q</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2003 1Q</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2003 2Q</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2003 3Q</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2003 4Q</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2004 1Q</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2004 2Q</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2004 3Q</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2004 4Q</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2005 1Q</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2005 2Q</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2005 3Q</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2005 4Q</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2006 1Q</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>2006 2Q</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>2006 3Q</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>2006 4Q</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2007 1Q</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2007 2Q</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2007 3Q</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2007 4Q</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>2008 1Q</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2008 2Q</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>2008 3Q</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>2008 4Q</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>2009 1Q</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2009 2Q</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2009 3Q</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>2009 4Q</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>2010 1Q</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>2010 2Q</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2010 3Q</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>2010 4Q</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>2011 1Q</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2011 2Q</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2011 3Q</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>2011 4Q</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>2012 1Q</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>2012 2Q</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>2012 3Q</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2012 4Q</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>2013 1Q</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>2013 2Q</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>2013 3Q</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>2013 4Q</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>2014 1Q</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>2014 2Q</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>2014 3Q</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>2014 4Q</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2015 1Q</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>2015 2Q</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>2015 3Q</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>2015 4Q</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>2016 1Q</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>2016 2Q</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>2016 3Q</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>2016 4Q</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>2017 1Q</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>2017 2Q</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>2017 3Q</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>2017 4Q</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>2018 1Q</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>2018 2Q</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>2018 3Q</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>2018 4Q</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>2019 1Q</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>2019 2Q</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>2019 3Q</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>2019 4Q</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>2020 1Q</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>2020 2Q</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>2020 3Q</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>2020 4Q</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>2021 1Q</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>2021 2Q</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>2021 3Q</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>2021 4Q</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:188">
-      <c r="A2" s="1" t="s">
-        <v>188</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Residential Properties</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>8.9</v>
@@ -2075,10 +1880,15 @@
       <c r="GF2" t="n">
         <v>165.3</v>
       </c>
+      <c r="GG2" t="n">
+        <v>173.6</v>
+      </c>
     </row>
-    <row r="3" spans="1:188">
-      <c r="A3" s="1" t="s">
-        <v>189</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Landed</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>7.4</v>
@@ -2641,10 +2451,15 @@
       <c r="GF3" t="n">
         <v>189.6</v>
       </c>
+      <c r="GG3" t="n">
+        <v>197</v>
+      </c>
     </row>
-    <row r="4" spans="1:188">
-      <c r="A4" s="1" t="s">
-        <v>190</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Non-landed</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>10.5</v>
@@ -3206,6 +3021,9 @@
       </c>
       <c r="GF4" t="n">
         <v>159.9</v>
+      </c>
+      <c r="GG4" t="n">
+        <v>168.4</v>
       </c>
     </row>
   </sheetData>
